--- a/data/par/12.xlsx
+++ b/data/par/12.xlsx
@@ -478,746 +478,746 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.001000165939331055</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>3.174541e-06</v>
+        <v>0.0001223322</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.109006404876709</v>
+        <v>0.113006591796875</v>
       </c>
       <c r="B8" t="n">
-        <v>3.17321e-06</v>
+        <v>0.0001223282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2020115852355957</v>
+        <v>0.2060120105743408</v>
       </c>
       <c r="B9" t="n">
-        <v>3.171391e-06</v>
+        <v>0.0001223474</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3090178966522217</v>
+        <v>0.3270189762115479</v>
       </c>
       <c r="B10" t="n">
-        <v>3.169379e-06</v>
+        <v>0.0001223207</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4120235443115234</v>
+        <v>0.4080235958099365</v>
       </c>
       <c r="B11" t="n">
-        <v>3.166614e-06</v>
+        <v>0.0001222985</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5050287246704102</v>
+        <v>0.5300304889678955</v>
       </c>
       <c r="B12" t="n">
-        <v>3.16619e-06</v>
+        <v>0.0001222834</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6160352230072021</v>
+        <v>0.6170353889465332</v>
       </c>
       <c r="B13" t="n">
-        <v>3.164568e-06</v>
+        <v>0.0001222933</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.705040454864502</v>
+        <v>0.7240414619445801</v>
       </c>
       <c r="B14" t="n">
-        <v>3.163368e-06</v>
+        <v>0.0001222917</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8020458221435547</v>
+        <v>0.832047700881958</v>
       </c>
       <c r="B15" t="n">
-        <v>3.162628e-06</v>
+        <v>0.0001223014</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9040517807006836</v>
+        <v>0.9030518531799316</v>
       </c>
       <c r="B16" t="n">
-        <v>3.160536e-06</v>
+        <v>0.0001223044</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.00405740737915</v>
+        <v>1.009057998657227</v>
       </c>
       <c r="B17" t="n">
-        <v>3.159123e-06</v>
+        <v>0.0001222945</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.109063386917114</v>
+        <v>1.113063812255859</v>
       </c>
       <c r="B18" t="n">
-        <v>3.15891e-06</v>
+        <v>0.0001222914</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.215069532394409</v>
+        <v>1.220069885253906</v>
       </c>
       <c r="B19" t="n">
-        <v>3.157716e-06</v>
+        <v>0.000122278</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.304074764251709</v>
+        <v>1.313075304031372</v>
       </c>
       <c r="B20" t="n">
-        <v>3.155498e-06</v>
+        <v>0.0001222792</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.406080484390259</v>
+        <v>1.403080463409424</v>
       </c>
       <c r="B21" t="n">
-        <v>3.153752e-06</v>
+        <v>0.0001222562</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.51608681678772</v>
+        <v>1.504086017608643</v>
       </c>
       <c r="B22" t="n">
-        <v>3.153503e-06</v>
+        <v>0.0001222637</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.606091976165771</v>
+        <v>1.606092214584351</v>
       </c>
       <c r="B23" t="n">
-        <v>3.151244e-06</v>
+        <v>0.000122234</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.708097696304321</v>
+        <v>1.7080979347229</v>
       </c>
       <c r="B24" t="n">
-        <v>3.149837e-06</v>
+        <v>0.0001222599</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.813103914260864</v>
+        <v>1.81010365486145</v>
       </c>
       <c r="B25" t="n">
-        <v>3.149851e-06</v>
+        <v>0.0001222456</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.908108949661255</v>
+        <v>1.915109634399414</v>
       </c>
       <c r="B26" t="n">
-        <v>3.149033e-06</v>
+        <v>0.000122244</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.006114721298218</v>
+        <v>2.004114866256714</v>
       </c>
       <c r="B27" t="n">
-        <v>3.149109e-06</v>
+        <v>0.0001222372</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.115121126174927</v>
+        <v>2.121121644973755</v>
       </c>
       <c r="B28" t="n">
-        <v>3.150075e-06</v>
+        <v>0.0001222216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.20612621307373</v>
+        <v>2.212126731872559</v>
       </c>
       <c r="B29" t="n">
-        <v>3.146793e-06</v>
+        <v>0.0001222178</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.305131912231445</v>
+        <v>2.304131984710693</v>
       </c>
       <c r="B30" t="n">
-        <v>3.148112e-06</v>
+        <v>0.0001221962</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.413138151168823</v>
+        <v>2.407137870788574</v>
       </c>
       <c r="B31" t="n">
-        <v>3.150657e-06</v>
+        <v>0.0001222139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.505143165588379</v>
+        <v>2.509143590927124</v>
       </c>
       <c r="B32" t="n">
-        <v>3.148609e-06</v>
+        <v>0.0001221885</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.601148843765259</v>
+        <v>2.607149362564087</v>
       </c>
       <c r="B33" t="n">
-        <v>3.151762e-06</v>
+        <v>0.0001221632</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.708154916763306</v>
+        <v>2.703154802322388</v>
       </c>
       <c r="B34" t="n">
-        <v>3.149862e-06</v>
+        <v>0.0001221741</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.810160636901855</v>
+        <v>2.811161041259766</v>
       </c>
       <c r="B35" t="n">
-        <v>3.150582e-06</v>
+        <v>0.0001221845</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.908166408538818</v>
+        <v>2.900166034698486</v>
       </c>
       <c r="B36" t="n">
-        <v>3.150385e-06</v>
+        <v>0.0001221577</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.013172388076782</v>
+        <v>3.019172668457031</v>
       </c>
       <c r="B37" t="n">
-        <v>3.154188e-06</v>
+        <v>0.0001221657</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.115178108215332</v>
+        <v>3.139179706573486</v>
       </c>
       <c r="B38" t="n">
-        <v>3.15543e-06</v>
+        <v>0.0001221533</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.222184419631958</v>
+        <v>3.249186038970947</v>
       </c>
       <c r="B39" t="n">
-        <v>3.157927e-06</v>
+        <v>0.0001221321</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.33919095993042</v>
+        <v>3.356192111968994</v>
       </c>
       <c r="B40" t="n">
-        <v>3.157278e-06</v>
+        <v>0.0001221291</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.44119668006897</v>
+        <v>3.427196264266968</v>
       </c>
       <c r="B41" t="n">
-        <v>3.161045e-06</v>
+        <v>0.0001221032</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.511200666427612</v>
+        <v>3.533202171325684</v>
       </c>
       <c r="B42" t="n">
-        <v>3.159831e-06</v>
+        <v>0.0001220787</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.615206956863403</v>
+        <v>3.602206230163574</v>
       </c>
       <c r="B43" t="n">
-        <v>3.162988e-06</v>
+        <v>0.0001220796</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.704211950302124</v>
+        <v>3.710212469100952</v>
       </c>
       <c r="B44" t="n">
-        <v>3.164444e-06</v>
+        <v>0.0001220574</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.802217483520508</v>
+        <v>3.807218074798584</v>
       </c>
       <c r="B45" t="n">
-        <v>3.164163e-06</v>
+        <v>0.0001220435</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.907223463058472</v>
+        <v>3.908223867416382</v>
       </c>
       <c r="B46" t="n">
-        <v>3.166511e-06</v>
+        <v>0.0001220695</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.007229089736938</v>
+        <v>4.0022292137146</v>
       </c>
       <c r="B47" t="n">
-        <v>3.16652e-06</v>
+        <v>0.0001220385</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.105234861373901</v>
+        <v>4.106235027313232</v>
       </c>
       <c r="B48" t="n">
-        <v>3.166859e-06</v>
+        <v>0.0001220662</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.212240934371948</v>
+        <v>4.20024037361145</v>
       </c>
       <c r="B49" t="n">
-        <v>3.169925e-06</v>
+        <v>0.0001220767</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.301245927810669</v>
+        <v>4.311246633529663</v>
       </c>
       <c r="B50" t="n">
-        <v>3.169313e-06</v>
+        <v>0.0001220642</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.407252311706543</v>
+        <v>4.402251958847046</v>
       </c>
       <c r="B51" t="n">
-        <v>3.170857e-06</v>
+        <v>0.0001220786</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.515258312225342</v>
+        <v>4.512258052825928</v>
       </c>
       <c r="B52" t="n">
-        <v>3.17135e-06</v>
+        <v>0.0001220418</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.602263212203979</v>
+        <v>4.617264270782471</v>
       </c>
       <c r="B53" t="n">
-        <v>3.171409e-06</v>
+        <v>0.0001220369</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4.700268745422363</v>
+        <v>4.705269336700439</v>
       </c>
       <c r="B54" t="n">
-        <v>3.172736e-06</v>
+        <v>0.0001220179</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.808274984359741</v>
+        <v>4.80127477645874</v>
       </c>
       <c r="B55" t="n">
-        <v>3.17266e-06</v>
+        <v>0.0001220309</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.908280849456787</v>
+        <v>4.907280683517456</v>
       </c>
       <c r="B56" t="n">
-        <v>3.172841e-06</v>
+        <v>0.0001220088</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.001286029815674</v>
+        <v>5.016287088394165</v>
       </c>
       <c r="B57" t="n">
-        <v>3.174232e-06</v>
+        <v>0.0001219987</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.100291728973389</v>
+        <v>5.132293701171875</v>
       </c>
       <c r="B58" t="n">
-        <v>3.174051e-06</v>
+        <v>0.0001219928</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.201297521591187</v>
+        <v>5.239300012588501</v>
       </c>
       <c r="B59" t="n">
-        <v>3.176459e-06</v>
+        <v>0.0001219918</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.305303573608398</v>
+        <v>5.334305047988892</v>
       </c>
       <c r="B60" t="n">
-        <v>3.176988e-06</v>
+        <v>0.0001219816</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.411309480667114</v>
+        <v>5.407309532165527</v>
       </c>
       <c r="B61" t="n">
-        <v>3.179311e-06</v>
+        <v>0.000121977</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.513315677642822</v>
+        <v>5.509315490722656</v>
       </c>
       <c r="B62" t="n">
-        <v>3.180228e-06</v>
+        <v>0.0001219839</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.608320713043213</v>
+        <v>5.609321117401123</v>
       </c>
       <c r="B63" t="n">
-        <v>3.178582e-06</v>
+        <v>0.00012198</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.714326858520508</v>
+        <v>5.703326225280762</v>
       </c>
       <c r="B64" t="n">
-        <v>3.179907e-06</v>
+        <v>0.0001219704</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.810332298278809</v>
+        <v>5.81133246421814</v>
       </c>
       <c r="B65" t="n">
-        <v>3.183526e-06</v>
+        <v>0.0001219671</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.900337696075439</v>
+        <v>5.901337623596191</v>
       </c>
       <c r="B66" t="n">
-        <v>3.180898e-06</v>
+        <v>0.0001219659</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6.012344121932983</v>
+        <v>6.008343935012817</v>
       </c>
       <c r="B67" t="n">
-        <v>3.18486e-06</v>
+        <v>0.0001219721</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6.121350049972534</v>
+        <v>6.108349561691284</v>
       </c>
       <c r="B68" t="n">
-        <v>3.185301e-06</v>
+        <v>0.0001219778</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6.22835636138916</v>
+        <v>6.21435546875</v>
       </c>
       <c r="B69" t="n">
-        <v>3.185141e-06</v>
+        <v>0.0001219619</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6.300360441207886</v>
+        <v>6.327362060546875</v>
       </c>
       <c r="B70" t="n">
-        <v>3.184821e-06</v>
+        <v>0.0001219786</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.403366327285767</v>
+        <v>6.408366680145264</v>
       </c>
       <c r="B71" t="n">
-        <v>3.186718e-06</v>
+        <v>0.0001219741</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.513372659683228</v>
+        <v>6.528373718261719</v>
       </c>
       <c r="B72" t="n">
-        <v>3.187341e-06</v>
+        <v>0.0001219638</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6.61737847328186</v>
+        <v>6.649380445480347</v>
       </c>
       <c r="B73" t="n">
-        <v>3.189249e-06</v>
+        <v>0.000121968</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6.70638370513916</v>
+        <v>6.718384504318237</v>
       </c>
       <c r="B74" t="n">
-        <v>3.18818e-06</v>
+        <v>0.0001219539</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6.802389144897461</v>
+        <v>6.807389497756958</v>
       </c>
       <c r="B75" t="n">
-        <v>3.190353e-06</v>
+        <v>0.000121953</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6.903394937515259</v>
+        <v>6.906395196914673</v>
       </c>
       <c r="B76" t="n">
-        <v>3.190072e-06</v>
+        <v>0.000121956</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>7.005400896072388</v>
+        <v>7.012401342391968</v>
       </c>
       <c r="B77" t="n">
-        <v>3.190299e-06</v>
+        <v>0.0001219761</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.107406616210938</v>
+        <v>7.103406429290771</v>
       </c>
       <c r="B78" t="n">
-        <v>3.192597e-06</v>
+        <v>0.0001219975</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>7.215412616729736</v>
+        <v>7.220412969589233</v>
       </c>
       <c r="B79" t="n">
-        <v>3.193577e-06</v>
+        <v>0.0001219701</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>7.302417755126953</v>
+        <v>7.308418273925781</v>
       </c>
       <c r="B80" t="n">
-        <v>3.194287e-06</v>
+        <v>0.0001219693</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7.406423568725586</v>
+        <v>7.411424160003662</v>
       </c>
       <c r="B81" t="n">
-        <v>3.193396e-06</v>
+        <v>0.0001219684</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.512429714202881</v>
+        <v>7.520430326461792</v>
       </c>
       <c r="B82" t="n">
-        <v>3.195822e-06</v>
+        <v>0.0001219829</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.630436420440674</v>
+        <v>7.624436378479004</v>
       </c>
       <c r="B83" t="n">
-        <v>3.196148e-06</v>
+        <v>0.0001219992</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.725441932678223</v>
+        <v>7.733442783355713</v>
       </c>
       <c r="B84" t="n">
-        <v>3.194324e-06</v>
+        <v>0.0001219923</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.814447164535522</v>
+        <v>7.803446531295776</v>
       </c>
       <c r="B85" t="n">
-        <v>3.195884e-06</v>
+        <v>0.0001219738</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7.907452344894409</v>
+        <v>7.911452531814575</v>
       </c>
       <c r="B86" t="n">
-        <v>3.197738e-06</v>
+        <v>0.0001219766</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8.005457878112793</v>
+        <v>8.001457691192627</v>
       </c>
       <c r="B87" t="n">
-        <v>3.197348e-06</v>
+        <v>0.0001219652</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8.114464282989502</v>
+        <v>8.121464729309082</v>
       </c>
       <c r="B88" t="n">
-        <v>3.198725e-06</v>
+        <v>0.0001220062</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8.212469816207886</v>
+        <v>8.220470428466797</v>
       </c>
       <c r="B89" t="n">
-        <v>3.198812e-06</v>
+        <v>0.000121958</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8.300474882125854</v>
+        <v>8.316475868225098</v>
       </c>
       <c r="B90" t="n">
-        <v>3.200434e-06</v>
+        <v>0.0001220012</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8.400480508804321</v>
+        <v>8.424482107162476</v>
       </c>
       <c r="B91" t="n">
-        <v>3.198922e-06</v>
+        <v>0.0001220099</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8.510486841201782</v>
+        <v>8.505486726760864</v>
       </c>
       <c r="B92" t="n">
-        <v>3.200991e-06</v>
+        <v>0.0001219726</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8.607492446899414</v>
+        <v>8.61149263381958</v>
       </c>
       <c r="B93" t="n">
-        <v>3.199671e-06</v>
+        <v>0.0001219992</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.715498447418213</v>
+        <v>8.721498966217041</v>
       </c>
       <c r="B94" t="n">
-        <v>3.201873e-06</v>
+        <v>0.0001219631</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.804503440856934</v>
+        <v>8.820504665374756</v>
       </c>
       <c r="B95" t="n">
-        <v>3.20177e-06</v>
+        <v>0.0001219922</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.922510385513306</v>
+        <v>8.916510105133057</v>
       </c>
       <c r="B96" t="n">
-        <v>3.200693e-06</v>
+        <v>0.0001220125</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9.032516479492188</v>
+        <v>9.024516344070435</v>
       </c>
       <c r="B97" t="n">
-        <v>3.20244e-06</v>
+        <v>0.0001219738</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.133522510528564</v>
+        <v>9.101520776748657</v>
       </c>
       <c r="B98" t="n">
-        <v>3.200537e-06</v>
+        <v>0.0001219873</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9.228527784347534</v>
+        <v>9.204526662826538</v>
       </c>
       <c r="B99" t="n">
-        <v>3.201598e-06</v>
+        <v>0.0001219739</v>
       </c>
     </row>
     <row r="100">
@@ -1225,2351 +1225,2351 @@
         <v>9.304532289505005</v>
       </c>
       <c r="B100" t="n">
-        <v>3.202581e-06</v>
+        <v>0.0001219436</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9.400537729263306</v>
+        <v>9.411538600921631</v>
       </c>
       <c r="B101" t="n">
-        <v>3.201859e-06</v>
+        <v>0.000121978</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9.508543968200684</v>
+        <v>9.506543874740601</v>
       </c>
       <c r="B102" t="n">
-        <v>3.20421e-06</v>
+        <v>0.0001219906</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9.613549947738647</v>
+        <v>9.607549905776978</v>
       </c>
       <c r="B103" t="n">
-        <v>3.205486e-06</v>
+        <v>0.0001219642</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9.728556632995605</v>
+        <v>9.734557151794434</v>
       </c>
       <c r="B104" t="n">
-        <v>3.203e-06</v>
+        <v>0.0001219874</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9.830562353134155</v>
+        <v>9.838562965393066</v>
       </c>
       <c r="B105" t="n">
-        <v>3.204065e-06</v>
+        <v>0.0001219492</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9.909566879272461</v>
+        <v>9.925567865371704</v>
       </c>
       <c r="B106" t="n">
-        <v>3.205101e-06</v>
+        <v>0.0001219548</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10.01057243347168</v>
+        <v>10.00557255744934</v>
       </c>
       <c r="B107" t="n">
-        <v>3.205678e-06</v>
+        <v>0.0001219611</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10.10057783126831</v>
+        <v>10.11457872390747</v>
       </c>
       <c r="B108" t="n">
-        <v>3.204508e-06</v>
+        <v>0.0001219379</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>10.21258425712585</v>
+        <v>10.22158479690552</v>
       </c>
       <c r="B109" t="n">
-        <v>3.206386e-06</v>
+        <v>0.0001219728</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>10.32959079742432</v>
+        <v>10.30158925056458</v>
       </c>
       <c r="B110" t="n">
-        <v>3.206805e-06</v>
+        <v>0.0001219593</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10.40659523010254</v>
+        <v>10.40659546852112</v>
       </c>
       <c r="B111" t="n">
-        <v>3.207445e-06</v>
+        <v>0.0001219502</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>10.51260137557983</v>
+        <v>10.50560116767883</v>
       </c>
       <c r="B112" t="n">
-        <v>3.20771e-06</v>
+        <v>0.0001219569</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>10.60560655593872</v>
+        <v>10.6126070022583</v>
       </c>
       <c r="B113" t="n">
-        <v>3.206327e-06</v>
+        <v>0.0001219656</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10.7036120891571</v>
+        <v>10.7016122341156</v>
       </c>
       <c r="B114" t="n">
-        <v>3.207612e-06</v>
+        <v>0.0001219741</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.81161856651306</v>
+        <v>10.80061793327332</v>
       </c>
       <c r="B115" t="n">
-        <v>3.208404e-06</v>
+        <v>0.0001219597</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10.91062426567078</v>
+        <v>10.90962409973145</v>
       </c>
       <c r="B116" t="n">
-        <v>3.207485e-06</v>
+        <v>0.0001219929</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>11.00062918663025</v>
+        <v>11.00762963294983</v>
       </c>
       <c r="B117" t="n">
-        <v>3.20805e-06</v>
+        <v>0.0001219904</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11.10763549804688</v>
+        <v>11.10563540458679</v>
       </c>
       <c r="B118" t="n">
-        <v>3.20895e-06</v>
+        <v>0.0001220409</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11.20764112472534</v>
+        <v>11.21164155006409</v>
       </c>
       <c r="B119" t="n">
-        <v>3.208437e-06</v>
+        <v>0.0001220615</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>11.3056468963623</v>
+        <v>11.30164670944214</v>
       </c>
       <c r="B120" t="n">
-        <v>3.208357e-06</v>
+        <v>0.0001220532</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>11.41265273094177</v>
+        <v>11.40665245056152</v>
       </c>
       <c r="B121" t="n">
-        <v>3.209534e-06</v>
+        <v>0.0001220203</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>11.51165843009949</v>
+        <v>11.51365876197815</v>
       </c>
       <c r="B122" t="n">
-        <v>3.209712e-06</v>
+        <v>0.0001220196</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>11.60966396331787</v>
+        <v>11.60566377639771</v>
       </c>
       <c r="B123" t="n">
-        <v>3.210306e-06</v>
+        <v>0.0001220032</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>11.71466994285583</v>
+        <v>11.7096700668335</v>
       </c>
       <c r="B124" t="n">
-        <v>3.207694e-06</v>
+        <v>0.00012205</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>11.80267524719238</v>
+        <v>11.81467580795288</v>
       </c>
       <c r="B125" t="n">
-        <v>3.208212e-06</v>
+        <v>0.0001220359</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>11.90668106079102</v>
+        <v>11.90368103981018</v>
       </c>
       <c r="B126" t="n">
-        <v>3.209543e-06</v>
+        <v>0.0001220557</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>12.01268696784973</v>
+        <v>12.00668692588806</v>
       </c>
       <c r="B127" t="n">
-        <v>3.208821e-06</v>
+        <v>0.0001220125</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>12.11069273948669</v>
+        <v>12.11369299888611</v>
       </c>
       <c r="B128" t="n">
-        <v>3.210919e-06</v>
+        <v>0.0001220431</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>12.20469808578491</v>
+        <v>12.20469832420349</v>
       </c>
       <c r="B129" t="n">
-        <v>3.211271e-06</v>
+        <v>0.0001220271</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>12.31370449066162</v>
+        <v>12.3027036190033</v>
       </c>
       <c r="B130" t="n">
-        <v>3.209513e-06</v>
+        <v>0.0001220395</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>12.40570950508118</v>
+        <v>12.41171002388</v>
       </c>
       <c r="B131" t="n">
-        <v>3.210251e-06</v>
+        <v>0.0001220252</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>12.50571537017822</v>
+        <v>12.50271534919739</v>
       </c>
       <c r="B132" t="n">
-        <v>3.209649e-06</v>
+        <v>0.0001220463</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>12.61472153663635</v>
+        <v>12.60672116279602</v>
       </c>
       <c r="B133" t="n">
-        <v>3.209895e-06</v>
+        <v>0.0001220765</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>12.70372653007507</v>
+        <v>12.71572756767273</v>
       </c>
       <c r="B134" t="n">
-        <v>3.211773e-06</v>
+        <v>0.0001220525</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>12.80773282051086</v>
+        <v>12.80673265457153</v>
       </c>
       <c r="B135" t="n">
-        <v>3.21253e-06</v>
+        <v>0.0001220663</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>12.91373872756958</v>
+        <v>12.90873861312866</v>
       </c>
       <c r="B136" t="n">
-        <v>3.210709e-06</v>
+        <v>0.0001220711</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>13.00174379348755</v>
+        <v>13.01474452018738</v>
       </c>
       <c r="B137" t="n">
-        <v>3.212556e-06</v>
+        <v>0.0001220131</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>13.10074925422668</v>
+        <v>13.10574984550476</v>
       </c>
       <c r="B138" t="n">
-        <v>3.211639e-06</v>
+        <v>0.0001220685</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>13.20975565910339</v>
+        <v>13.22075629234314</v>
       </c>
       <c r="B139" t="n">
-        <v>3.213658e-06</v>
+        <v>0.0001220359</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>13.31676173210144</v>
+        <v>13.30176115036011</v>
       </c>
       <c r="B140" t="n">
-        <v>3.212549e-06</v>
+        <v>0.0001220388</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>13.42376780509949</v>
+        <v>13.40676689147949</v>
       </c>
       <c r="B141" t="n">
-        <v>3.214093e-06</v>
+        <v>0.0001220418</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>13.51977348327637</v>
+        <v>13.50777268409729</v>
       </c>
       <c r="B142" t="n">
-        <v>3.214464e-06</v>
+        <v>0.0001220397</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>13.60877847671509</v>
+        <v>13.61477899551392</v>
       </c>
       <c r="B143" t="n">
-        <v>3.215971e-06</v>
+        <v>0.0001220443</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>13.70178389549255</v>
+        <v>13.70578408241272</v>
       </c>
       <c r="B144" t="n">
-        <v>3.215383e-06</v>
+        <v>0.0001220543</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>13.80078959465027</v>
+        <v>13.8207905292511</v>
       </c>
       <c r="B145" t="n">
-        <v>3.214975e-06</v>
+        <v>0.0001220459</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>13.9047954082489</v>
+        <v>13.90179538726807</v>
       </c>
       <c r="B146" t="n">
-        <v>3.214588e-06</v>
+        <v>0.0001220638</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>14.00380110740662</v>
+        <v>14.00780153274536</v>
       </c>
       <c r="B147" t="n">
-        <v>3.214701e-06</v>
+        <v>0.0001220498</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>14.10080671310425</v>
+        <v>14.10880708694458</v>
       </c>
       <c r="B148" t="n">
-        <v>3.216489e-06</v>
+        <v>0.0001220504</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>14.20581245422363</v>
+        <v>14.21581315994263</v>
       </c>
       <c r="B149" t="n">
-        <v>3.215151e-06</v>
+        <v>0.0001220592</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>14.30581831932068</v>
+        <v>14.30681848526001</v>
       </c>
       <c r="B150" t="n">
-        <v>3.215465e-06</v>
+        <v>0.0001220549</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>14.41482448577881</v>
+        <v>14.40882444381714</v>
       </c>
       <c r="B151" t="n">
-        <v>3.217903e-06</v>
+        <v>0.00012206</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>14.50482964515686</v>
+        <v>14.50282979011536</v>
       </c>
       <c r="B152" t="n">
-        <v>3.218414e-06</v>
+        <v>0.000122069</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>14.61283588409424</v>
+        <v>14.60783576965332</v>
       </c>
       <c r="B153" t="n">
-        <v>3.216848e-06</v>
+        <v>0.0001220952</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>14.71584177017212</v>
+        <v>14.70984148979187</v>
       </c>
       <c r="B154" t="n">
-        <v>3.218133e-06</v>
+        <v>0.0001221118</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>14.80584692955017</v>
+        <v>14.81584763526917</v>
       </c>
       <c r="B155" t="n">
-        <v>3.216958e-06</v>
+        <v>0.0001220928</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>14.90885281562805</v>
+        <v>14.9078528881073</v>
       </c>
       <c r="B156" t="n">
-        <v>3.218308e-06</v>
+        <v>0.0001221193</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>15.01485872268677</v>
+        <v>15.00985860824585</v>
       </c>
       <c r="B157" t="n">
-        <v>3.219225e-06</v>
+        <v>0.0001221202</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>15.10486388206482</v>
+        <v>15.11586475372314</v>
       </c>
       <c r="B158" t="n">
-        <v>3.217983e-06</v>
+        <v>0.0001221346</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>15.21387028694153</v>
+        <v>15.20686984062195</v>
       </c>
       <c r="B159" t="n">
-        <v>3.218191e-06</v>
+        <v>0.0001221502</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>15.31787610054016</v>
+        <v>15.30987572669983</v>
       </c>
       <c r="B160" t="n">
-        <v>3.219199e-06</v>
+        <v>0.0001221664</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>15.40788149833679</v>
+        <v>15.41688203811646</v>
       </c>
       <c r="B161" t="n">
-        <v>3.220416e-06</v>
+        <v>0.0001221428</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>15.51088714599609</v>
+        <v>15.50388693809509</v>
       </c>
       <c r="B162" t="n">
-        <v>3.217873e-06</v>
+        <v>0.0001221498</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>15.60589265823364</v>
+        <v>15.60889291763306</v>
       </c>
       <c r="B163" t="n">
-        <v>3.219575e-06</v>
+        <v>0.0001221838</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>15.71089863777161</v>
+        <v>15.7158989906311</v>
       </c>
       <c r="B164" t="n">
-        <v>3.219183e-06</v>
+        <v>0.0001222017</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>15.80090379714966</v>
+        <v>15.80790448188782</v>
       </c>
       <c r="B165" t="n">
-        <v>3.219734e-06</v>
+        <v>0.0001222046</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>15.91491055488586</v>
+        <v>15.9009096622467</v>
       </c>
       <c r="B166" t="n">
-        <v>3.220751e-06</v>
+        <v>0.0001221889</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>16.01291584968567</v>
+        <v>16.01091599464417</v>
       </c>
       <c r="B167" t="n">
-        <v>3.220189e-06</v>
+        <v>0.0001222002</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>16.10192108154297</v>
+        <v>16.10992169380188</v>
       </c>
       <c r="B168" t="n">
-        <v>3.220756e-06</v>
+        <v>0.0001222015</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16.20192670822144</v>
+        <v>16.22792840003967</v>
       </c>
       <c r="B169" t="n">
-        <v>3.220238e-06</v>
+        <v>0.0001221893</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>16.30793285369873</v>
+        <v>16.33893465995789</v>
       </c>
       <c r="B170" t="n">
-        <v>3.220418e-06</v>
+        <v>0.000122191</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>16.4009382724762</v>
+        <v>16.44794106483459</v>
       </c>
       <c r="B171" t="n">
-        <v>3.220756e-06</v>
+        <v>0.000122178</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16.50094389915466</v>
+        <v>16.55494689941406</v>
       </c>
       <c r="B172" t="n">
-        <v>3.220247e-06</v>
+        <v>0.0001221778</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>16.60894989967346</v>
+        <v>16.62595105171204</v>
       </c>
       <c r="B173" t="n">
-        <v>3.219495e-06</v>
+        <v>0.000122186</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16.70195531845093</v>
+        <v>16.7359573841095</v>
       </c>
       <c r="B174" t="n">
-        <v>3.220747e-06</v>
+        <v>0.0001221814</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>16.80996155738831</v>
+        <v>16.80796146392822</v>
       </c>
       <c r="B175" t="n">
-        <v>3.220395e-06</v>
+        <v>0.0001221777</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>16.91496753692627</v>
+        <v>16.9209680557251</v>
       </c>
       <c r="B176" t="n">
-        <v>3.22024e-06</v>
+        <v>0.0001221964</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>17.01597332954407</v>
+        <v>17.03197431564331</v>
       </c>
       <c r="B177" t="n">
-        <v>3.220027e-06</v>
+        <v>0.0001221753</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>17.11797904968262</v>
+        <v>17.10297846794128</v>
       </c>
       <c r="B178" t="n">
-        <v>3.221427e-06</v>
+        <v>0.0001221996</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>17.208984375</v>
+        <v>17.21298480033875</v>
       </c>
       <c r="B179" t="n">
-        <v>3.21949e-06</v>
+        <v>0.0001222074</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>17.31199026107788</v>
+        <v>17.3099901676178</v>
       </c>
       <c r="B180" t="n">
-        <v>3.220414e-06</v>
+        <v>0.0001222308</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>17.41699624061584</v>
+        <v>17.42299675941467</v>
       </c>
       <c r="B181" t="n">
-        <v>3.220111e-06</v>
+        <v>0.0001222273</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>17.50800156593323</v>
+        <v>17.50500130653381</v>
       </c>
       <c r="B182" t="n">
-        <v>3.220013e-06</v>
+        <v>0.0001222355</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>17.61100721359253</v>
+        <v>17.60000681877136</v>
       </c>
       <c r="B183" t="n">
-        <v>3.218883e-06</v>
+        <v>0.000122233</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>17.71601319313049</v>
+        <v>17.70401263237</v>
       </c>
       <c r="B184" t="n">
-        <v>3.220721e-06</v>
+        <v>0.0001222496</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>17.80501842498779</v>
+        <v>17.81401896476746</v>
       </c>
       <c r="B185" t="n">
-        <v>3.222106e-06</v>
+        <v>0.0001222408</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>17.90802431106567</v>
+        <v>17.90602421760559</v>
       </c>
       <c r="B186" t="n">
-        <v>3.219706e-06</v>
+        <v>0.0001222606</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>18.01703071594238</v>
+        <v>18.02203106880188</v>
       </c>
       <c r="B187" t="n">
-        <v>3.219607e-06</v>
+        <v>0.0001222552</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>18.10803580284119</v>
+        <v>18.1060357093811</v>
       </c>
       <c r="B188" t="n">
-        <v>3.218473e-06</v>
+        <v>0.000122247</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>18.20604133605957</v>
+        <v>18.22204256057739</v>
       </c>
       <c r="B189" t="n">
-        <v>3.220325e-06</v>
+        <v>0.0001222548</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>18.31504774093628</v>
+        <v>18.32504844665527</v>
       </c>
       <c r="B190" t="n">
-        <v>3.220318e-06</v>
+        <v>0.0001222425</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>18.40605282783508</v>
+        <v>18.40705323219299</v>
       </c>
       <c r="B191" t="n">
-        <v>3.220623e-06</v>
+        <v>0.0001222437</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>18.50005841255188</v>
+        <v>18.5300600528717</v>
       </c>
       <c r="B192" t="n">
-        <v>3.219335e-06</v>
+        <v>0.0001222472</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>18.60006403923035</v>
+        <v>18.62406539916992</v>
       </c>
       <c r="B193" t="n">
-        <v>3.21953e-06</v>
+        <v>0.0001222602</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>18.7020697593689</v>
+        <v>18.70507001876831</v>
       </c>
       <c r="B194" t="n">
-        <v>3.220484e-06</v>
+        <v>0.000122267</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>18.81007599830627</v>
+        <v>18.80907607078552</v>
       </c>
       <c r="B195" t="n">
-        <v>3.218778e-06</v>
+        <v>0.0001222509</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>18.91708207130432</v>
+        <v>18.90808153152466</v>
       </c>
       <c r="B196" t="n">
-        <v>3.219214e-06</v>
+        <v>0.0001222652</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>19.00708723068237</v>
+        <v>19.00108671188354</v>
       </c>
       <c r="B197" t="n">
-        <v>3.218785e-06</v>
+        <v>0.0001222672</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>19.1090931892395</v>
+        <v>19.10809302330017</v>
       </c>
       <c r="B198" t="n">
-        <v>3.219282e-06</v>
+        <v>0.0001222714</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>19.2170991897583</v>
+        <v>19.2050986289978</v>
       </c>
       <c r="B199" t="n">
-        <v>3.217722e-06</v>
+        <v>0.0001222929</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>19.30710434913635</v>
+        <v>19.31410503387451</v>
       </c>
       <c r="B200" t="n">
-        <v>3.217659e-06</v>
+        <v>0.0001222791</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>19.40610980987549</v>
+        <v>19.40611004829407</v>
       </c>
       <c r="B201" t="n">
-        <v>3.216768e-06</v>
+        <v>0.0001222853</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>19.5151162147522</v>
+        <v>19.52211666107178</v>
       </c>
       <c r="B202" t="n">
-        <v>3.217289e-06</v>
+        <v>0.0001222627</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>19.60612154006958</v>
+        <v>19.6041214466095</v>
       </c>
       <c r="B203" t="n">
-        <v>3.216963e-06</v>
+        <v>0.0001222607</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>19.70712733268738</v>
+        <v>19.70412707328796</v>
       </c>
       <c r="B204" t="n">
-        <v>3.217158e-06</v>
+        <v>0.0001222843</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>19.81613326072693</v>
+        <v>19.80613303184509</v>
       </c>
       <c r="B205" t="n">
-        <v>3.217915e-06</v>
+        <v>0.0001222674</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>19.90613865852356</v>
+        <v>19.9101390838623</v>
       </c>
       <c r="B206" t="n">
-        <v>3.216865e-06</v>
+        <v>0.000122263</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>20.02414536476135</v>
+        <v>20.01014471054077</v>
       </c>
       <c r="B207" t="n">
-        <v>3.216991e-06</v>
+        <v>0.0001222809</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>20.12215089797974</v>
+        <v>20.10815048217773</v>
       </c>
       <c r="B208" t="n">
-        <v>3.217155e-06</v>
+        <v>0.0001222691</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>20.20215559005737</v>
+        <v>20.21415638923645</v>
       </c>
       <c r="B209" t="n">
-        <v>3.21697e-06</v>
+        <v>0.0001222879</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>20.30316138267517</v>
+        <v>20.30616140365601</v>
       </c>
       <c r="B210" t="n">
-        <v>3.21517e-06</v>
+        <v>0.0001222816</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>20.4001669883728</v>
+        <v>20.40516710281372</v>
       </c>
       <c r="B211" t="n">
-        <v>3.215746e-06</v>
+        <v>0.0001222802</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>20.5081729888916</v>
+        <v>20.51517343521118</v>
       </c>
       <c r="B212" t="n">
-        <v>3.215749e-06</v>
+        <v>0.0001223005</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>20.6091787815094</v>
+        <v>20.6071789264679</v>
       </c>
       <c r="B213" t="n">
-        <v>3.21599e-06</v>
+        <v>0.0001222957</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>20.71618485450745</v>
+        <v>20.70118427276611</v>
       </c>
       <c r="B214" t="n">
-        <v>3.215608e-06</v>
+        <v>0.0001223044</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>20.80719017982483</v>
+        <v>20.80519032478333</v>
       </c>
       <c r="B215" t="n">
-        <v>3.215449e-06</v>
+        <v>0.0001223106</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>20.90419578552246</v>
+        <v>20.90819597244263</v>
       </c>
       <c r="B216" t="n">
-        <v>3.214565e-06</v>
+        <v>0.0001223329</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>21.01320195198059</v>
+        <v>21.00320172309875</v>
       </c>
       <c r="B217" t="n">
-        <v>3.214567e-06</v>
+        <v>0.0001223367</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>21.11020755767822</v>
+        <v>21.11420774459839</v>
       </c>
       <c r="B218" t="n">
-        <v>3.21501e-06</v>
+        <v>0.0001222929</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>21.20121264457703</v>
+        <v>21.20721316337585</v>
       </c>
       <c r="B219" t="n">
-        <v>3.215969e-06</v>
+        <v>0.0001222861</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>21.30821895599365</v>
+        <v>21.32321977615356</v>
       </c>
       <c r="B220" t="n">
-        <v>3.214248e-06</v>
+        <v>0.0001222795</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>21.41222476959229</v>
+        <v>21.40522456169128</v>
       </c>
       <c r="B221" t="n">
-        <v>3.212851e-06</v>
+        <v>0.0001222802</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>21.50322985649109</v>
+        <v>21.51823091506958</v>
       </c>
       <c r="B222" t="n">
-        <v>3.213064e-06</v>
+        <v>0.0001222824</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>21.61623644828796</v>
+        <v>21.62723731994629</v>
       </c>
       <c r="B223" t="n">
-        <v>3.212978e-06</v>
+        <v>0.0001222482</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>21.7082417011261</v>
+        <v>21.71024179458618</v>
       </c>
       <c r="B224" t="n">
-        <v>3.213573e-06</v>
+        <v>0.0001222385</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>21.80424690246582</v>
+        <v>21.81724810600281</v>
       </c>
       <c r="B225" t="n">
-        <v>3.214136e-06</v>
+        <v>0.000122274</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>21.90125274658203</v>
+        <v>21.92725443840027</v>
       </c>
       <c r="B226" t="n">
-        <v>3.214865e-06</v>
+        <v>0.0001222804</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>22.00825881958008</v>
+        <v>22.00925922393799</v>
       </c>
       <c r="B227" t="n">
-        <v>3.213275e-06</v>
+        <v>0.000122237</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>22.10926461219788</v>
+        <v>22.10726451873779</v>
       </c>
       <c r="B228" t="n">
-        <v>3.212579e-06</v>
+        <v>0.0001222247</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>22.21127033233643</v>
+        <v>22.21027064323425</v>
       </c>
       <c r="B229" t="n">
-        <v>3.211642e-06</v>
+        <v>0.0001222143</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>22.33327746391296</v>
+        <v>22.31627655029297</v>
       </c>
       <c r="B230" t="n">
-        <v>3.212675e-06</v>
+        <v>0.0001222043</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>22.42928314208984</v>
+        <v>22.40928196907043</v>
       </c>
       <c r="B231" t="n">
-        <v>3.212574e-06</v>
+        <v>0.0001222133</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>22.50028705596924</v>
+        <v>22.52428865432739</v>
       </c>
       <c r="B232" t="n">
-        <v>3.21366e-06</v>
+        <v>0.0001222004</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>22.60929322242737</v>
+        <v>22.60429286956787</v>
       </c>
       <c r="B233" t="n">
-        <v>3.212769e-06</v>
+        <v>0.0001222026</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>22.7082986831665</v>
+        <v>22.70729899406433</v>
       </c>
       <c r="B234" t="n">
-        <v>3.211885e-06</v>
+        <v>0.000122251</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>22.80730438232422</v>
+        <v>22.8073046207428</v>
       </c>
       <c r="B235" t="n">
-        <v>3.213782e-06</v>
+        <v>0.0001222637</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>22.90931034088135</v>
+        <v>22.91031050682068</v>
       </c>
       <c r="B236" t="n">
-        <v>3.212666e-06</v>
+        <v>0.0001222378</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>23.00831604003906</v>
+        <v>23.00831627845764</v>
       </c>
       <c r="B237" t="n">
-        <v>3.210169e-06</v>
+        <v>0.0001221929</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>23.11132192611694</v>
+        <v>23.10832190513611</v>
       </c>
       <c r="B238" t="n">
-        <v>3.21114e-06</v>
+        <v>0.0001223207</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>23.23132872581482</v>
+        <v>23.21432781219482</v>
       </c>
       <c r="B239" t="n">
-        <v>3.210737e-06</v>
+        <v>0.0001220361</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>23.35133576393127</v>
+        <v>23.30333304405212</v>
       </c>
       <c r="B240" t="n">
-        <v>3.21235e-06</v>
+        <v>0.0001221356</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>23.47034239768982</v>
+        <v>23.42033982276917</v>
       </c>
       <c r="B241" t="n">
-        <v>3.212657e-06</v>
+        <v>0.0001222041</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>23.5903491973877</v>
+        <v>23.52334570884705</v>
       </c>
       <c r="B242" t="n">
-        <v>3.212748e-06</v>
+        <v>0.0001222798</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>23.71035623550415</v>
+        <v>23.63235187530518</v>
       </c>
       <c r="B243" t="n">
-        <v>3.211348e-06</v>
+        <v>0.0001222857</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>23.82136249542236</v>
+        <v>23.70335602760315</v>
       </c>
       <c r="B244" t="n">
-        <v>3.21061e-06</v>
+        <v>0.0001222799</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>23.92436838150024</v>
+        <v>23.81136226654053</v>
       </c>
       <c r="B245" t="n">
-        <v>3.212223e-06</v>
+        <v>0.000122284</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>24.01837396621704</v>
+        <v>23.90436744689941</v>
       </c>
       <c r="B246" t="n">
-        <v>3.212221e-06</v>
+        <v>0.0001223023</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>24.08737754821777</v>
+        <v>24.00337314605713</v>
       </c>
       <c r="B247" t="n">
-        <v>3.211585e-06</v>
+        <v>0.000122279</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>24.19338393211365</v>
+        <v>24.11237931251526</v>
       </c>
       <c r="B248" t="n">
-        <v>3.212277e-06</v>
+        <v>0.0001223236</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>24.28738927841187</v>
+        <v>24.20238447189331</v>
       </c>
       <c r="B249" t="n">
-        <v>3.211275e-06</v>
+        <v>0.0001223208</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>24.35539317131042</v>
+        <v>24.31139087677002</v>
       </c>
       <c r="B250" t="n">
-        <v>3.211435e-06</v>
+        <v>0.0001222915</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>24.46239924430847</v>
+        <v>24.41539669036865</v>
       </c>
       <c r="B251" t="n">
-        <v>3.211309e-06</v>
+        <v>0.0001223175</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>24.56740522384644</v>
+        <v>24.5054018497467</v>
       </c>
       <c r="B252" t="n">
-        <v>3.209871e-06</v>
+        <v>0.0001223111</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>24.67441129684448</v>
+        <v>24.60740780830383</v>
       </c>
       <c r="B253" t="n">
-        <v>3.211048e-06</v>
+        <v>0.0001222859</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>24.78141736984253</v>
+        <v>24.71241354942322</v>
       </c>
       <c r="B254" t="n">
-        <v>3.21091e-06</v>
+        <v>0.0001222776</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>24.88742351531982</v>
+        <v>24.80241870880127</v>
       </c>
       <c r="B255" t="n">
-        <v>3.211672e-06</v>
+        <v>0.0001223023</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>24.95542764663696</v>
+        <v>24.90142440795898</v>
       </c>
       <c r="B256" t="n">
-        <v>3.211524e-06</v>
+        <v>0.0001222809</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>25.04843258857727</v>
+        <v>25.01043081283569</v>
       </c>
       <c r="B257" t="n">
-        <v>3.211742e-06</v>
+        <v>0.0001222483</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>25.15643906593323</v>
+        <v>25.10343623161316</v>
       </c>
       <c r="B258" t="n">
-        <v>3.211813e-06</v>
+        <v>0.0001222975</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>25.22444295883179</v>
+        <v>25.20344185829163</v>
       </c>
       <c r="B259" t="n">
-        <v>3.212265e-06</v>
+        <v>0.000122339</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>25.31344795227051</v>
+        <v>25.31244778633118</v>
       </c>
       <c r="B260" t="n">
-        <v>3.211738e-06</v>
+        <v>0.0001223308</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>25.40345311164856</v>
+        <v>25.40045285224915</v>
       </c>
       <c r="B261" t="n">
-        <v>3.213758e-06</v>
+        <v>0.0001223106</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>25.50345873832703</v>
+        <v>25.50245881080627</v>
       </c>
       <c r="B262" t="n">
-        <v>3.213864e-06</v>
+        <v>0.0001223002</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>25.60846471786499</v>
+        <v>25.6114649772644</v>
       </c>
       <c r="B263" t="n">
-        <v>3.212347e-06</v>
+        <v>0.000122307</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>25.70747041702271</v>
+        <v>25.70847058296204</v>
       </c>
       <c r="B264" t="n">
-        <v>3.213662e-06</v>
+        <v>0.0001223023</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>25.81547665596008</v>
+        <v>25.82147693634033</v>
       </c>
       <c r="B265" t="n">
-        <v>3.215348e-06</v>
+        <v>0.0001222923</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>25.90348148345947</v>
+        <v>25.9024817943573</v>
       </c>
       <c r="B266" t="n">
-        <v>3.213866e-06</v>
+        <v>0.0001222842</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>26.00348711013794</v>
+        <v>26.00648760795593</v>
       </c>
       <c r="B267" t="n">
-        <v>3.215992e-06</v>
+        <v>0.0001222855</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>26.10049295425415</v>
+        <v>26.1064932346344</v>
       </c>
       <c r="B268" t="n">
-        <v>3.213229e-06</v>
+        <v>0.0001222735</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>26.20549893379211</v>
+        <v>26.20849919319153</v>
       </c>
       <c r="B269" t="n">
-        <v>3.214187e-06</v>
+        <v>0.0001222555</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>26.30550479888916</v>
+        <v>26.31150531768799</v>
       </c>
       <c r="B270" t="n">
-        <v>3.216417e-06</v>
+        <v>0.0001223479</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>26.41451072692871</v>
+        <v>26.41251087188721</v>
       </c>
       <c r="B271" t="n">
-        <v>3.217155e-06</v>
+        <v>0.0001223493</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>26.50351595878601</v>
+        <v>26.51451683044434</v>
       </c>
       <c r="B272" t="n">
-        <v>3.217007e-06</v>
+        <v>0.0001222922</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>26.62252283096313</v>
+        <v>26.60452175140381</v>
       </c>
       <c r="B273" t="n">
-        <v>3.216684e-06</v>
+        <v>0.0001223075</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>26.74252963066101</v>
+        <v>26.70952796936035</v>
       </c>
       <c r="B274" t="n">
-        <v>3.21637e-06</v>
+        <v>0.0001222799</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>26.86253643035889</v>
+        <v>26.81453371047974</v>
       </c>
       <c r="B275" t="n">
-        <v>3.218405e-06</v>
+        <v>0.0001223516</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>26.98254323005676</v>
+        <v>26.90653920173645</v>
       </c>
       <c r="B276" t="n">
-        <v>3.21912e-06</v>
+        <v>0.0001223321</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>27.10255026817322</v>
+        <v>27.00054454803467</v>
       </c>
       <c r="B277" t="n">
-        <v>3.219209e-06</v>
+        <v>0.0001223178</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>27.22255682945251</v>
+        <v>27.11055088043213</v>
       </c>
       <c r="B278" t="n">
-        <v>3.218799e-06</v>
+        <v>0.0001223258</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>27.34156394004822</v>
+        <v>27.20255589485168</v>
       </c>
       <c r="B279" t="n">
-        <v>3.218705e-06</v>
+        <v>0.000122336</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>27.46157073974609</v>
+        <v>27.32056283950806</v>
       </c>
       <c r="B280" t="n">
-        <v>3.220737e-06</v>
+        <v>0.0001223152</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>27.5825777053833</v>
+        <v>27.40156722068787</v>
       </c>
       <c r="B281" t="n">
-        <v>3.220433e-06</v>
+        <v>0.0001223236</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>27.70258450508118</v>
+        <v>27.50857353210449</v>
       </c>
       <c r="B282" t="n">
-        <v>3.220749e-06</v>
+        <v>0.0001223185</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>27.8215913772583</v>
+        <v>27.60757923126221</v>
       </c>
       <c r="B283" t="n">
-        <v>3.220636e-06</v>
+        <v>0.0001223596</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>27.94159817695618</v>
+        <v>27.71558547019958</v>
       </c>
       <c r="B284" t="n">
-        <v>3.221049e-06</v>
+        <v>0.0001223653</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>28.06160497665405</v>
+        <v>27.80659055709839</v>
       </c>
       <c r="B285" t="n">
-        <v>3.222041e-06</v>
+        <v>0.0001223516</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>28.18161201477051</v>
+        <v>27.90859627723694</v>
       </c>
       <c r="B286" t="n">
-        <v>3.222749e-06</v>
+        <v>0.0001223546</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>28.30161881446838</v>
+        <v>28.01560258865356</v>
       </c>
       <c r="B287" t="n">
-        <v>3.223764e-06</v>
+        <v>0.0001224036</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>28.41162514686584</v>
+        <v>28.10560774803162</v>
       </c>
       <c r="B288" t="n">
-        <v>3.221612e-06</v>
+        <v>0.000122389</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>28.51763129234314</v>
+        <v>28.20561337471008</v>
       </c>
       <c r="B289" t="n">
-        <v>3.221408e-06</v>
+        <v>0.0001223653</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>28.58563494682312</v>
+        <v>28.31061959266663</v>
       </c>
       <c r="B290" t="n">
-        <v>3.22404e-06</v>
+        <v>0.0001223793</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>28.6936411857605</v>
+        <v>28.40662479400635</v>
       </c>
       <c r="B291" t="n">
-        <v>3.223921e-06</v>
+        <v>0.0001224122</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>28.79564690589905</v>
+        <v>28.50663065910339</v>
       </c>
       <c r="B292" t="n">
-        <v>3.223332e-06</v>
+        <v>0.0001223393</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>28.903653383255</v>
+        <v>28.61163663864136</v>
       </c>
       <c r="B293" t="n">
-        <v>3.22304e-06</v>
+        <v>0.0001223131</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>28.99465847015381</v>
+        <v>28.70964241027832</v>
       </c>
       <c r="B294" t="n">
-        <v>3.222833e-06</v>
+        <v>0.0001223151</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>29.08466362953186</v>
+        <v>28.81864833831787</v>
       </c>
       <c r="B295" t="n">
-        <v>3.224045e-06</v>
+        <v>0.0001223102</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>29.17266869544983</v>
+        <v>28.9156539440155</v>
       </c>
       <c r="B296" t="n">
-        <v>3.222404e-06</v>
+        <v>0.0001223259</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>29.2726743221283</v>
+        <v>29.00565934181213</v>
       </c>
       <c r="B297" t="n">
-        <v>3.224533e-06</v>
+        <v>0.0001223365</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>29.36667966842651</v>
+        <v>29.11966586112976</v>
       </c>
       <c r="B298" t="n">
-        <v>3.223368e-06</v>
+        <v>0.0001223993</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>29.47468590736389</v>
+        <v>29.20767068862915</v>
       </c>
       <c r="B299" t="n">
-        <v>3.223637e-06</v>
+        <v>0.0001223245</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>29.56269097328186</v>
+        <v>29.30267643928528</v>
       </c>
       <c r="B300" t="n">
-        <v>3.224068e-06</v>
+        <v>0.0001222727</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>29.66969704627991</v>
+        <v>29.40168166160583</v>
       </c>
       <c r="B301" t="n">
-        <v>3.223743e-06</v>
+        <v>0.0001222801</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>29.78470373153687</v>
+        <v>29.50968813896179</v>
       </c>
       <c r="B302" t="n">
-        <v>3.226061e-06</v>
+        <v>0.0001223225</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>29.89270997047424</v>
+        <v>29.60569357872009</v>
       </c>
       <c r="B303" t="n">
-        <v>3.225764e-06</v>
+        <v>0.0001223006</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>29.99271559715271</v>
+        <v>29.70669937133789</v>
       </c>
       <c r="B304" t="n">
-        <v>3.226071e-06</v>
+        <v>0.0001222469</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>30.08772087097168</v>
+        <v>29.80970525741577</v>
       </c>
       <c r="B305" t="n">
-        <v>3.225792e-06</v>
+        <v>0.0001222238</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>30.19872736930847</v>
+        <v>29.90171051025391</v>
       </c>
       <c r="B306" t="n">
-        <v>3.226366e-06</v>
+        <v>0.000122224</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>30.2707314491272</v>
+        <v>30.00671648979187</v>
       </c>
       <c r="B307" t="n">
-        <v>3.226647e-06</v>
+        <v>0.0001222058</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>30.37473750114441</v>
+        <v>30.11272263526917</v>
       </c>
       <c r="B308" t="n">
-        <v>3.225449e-06</v>
+        <v>0.0001222671</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>30.46574258804321</v>
+        <v>30.20172762870789</v>
       </c>
       <c r="B309" t="n">
-        <v>3.227292e-06</v>
+        <v>0.0001222928</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>30.5347466468811</v>
+        <v>30.30473351478577</v>
       </c>
       <c r="B310" t="n">
-        <v>3.226242e-06</v>
+        <v>0.0001222654</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>30.6427526473999</v>
+        <v>30.41073966026306</v>
       </c>
       <c r="B311" t="n">
-        <v>3.226254e-06</v>
+        <v>0.0001222574</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>30.7387580871582</v>
+        <v>30.50974535942078</v>
       </c>
       <c r="B312" t="n">
-        <v>3.226364e-06</v>
+        <v>0.0001222859</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>30.80976223945618</v>
+        <v>30.61975145339966</v>
       </c>
       <c r="B313" t="n">
-        <v>3.226938e-06</v>
+        <v>0.0001222853</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>30.91576838493347</v>
+        <v>30.71675705909729</v>
       </c>
       <c r="B314" t="n">
-        <v>3.226736e-06</v>
+        <v>0.0001223029</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>30.98577237129211</v>
+        <v>30.80776238441467</v>
       </c>
       <c r="B315" t="n">
-        <v>3.227003e-06</v>
+        <v>0.0001223047</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>31.09377837181091</v>
+        <v>30.91976857185364</v>
       </c>
       <c r="B316" t="n">
-        <v>3.226668e-06</v>
+        <v>0.00012231</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>31.19378423690796</v>
+        <v>31.02177453041077</v>
       </c>
       <c r="B317" t="n">
-        <v>3.226664e-06</v>
+        <v>0.0001223032</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>31.28278946876526</v>
+        <v>31.12978076934814</v>
       </c>
       <c r="B318" t="n">
-        <v>3.227165e-06</v>
+        <v>0.0001223065</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>31.37779474258423</v>
+        <v>31.20878529548645</v>
       </c>
       <c r="B319" t="n">
-        <v>3.226066e-06</v>
+        <v>0.000122291</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>31.48580098152161</v>
+        <v>31.31279110908508</v>
       </c>
       <c r="B320" t="n">
-        <v>3.226701e-06</v>
+        <v>0.0001222721</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>31.57380604743958</v>
+        <v>31.40379643440247</v>
       </c>
       <c r="B321" t="n">
-        <v>3.226153e-06</v>
+        <v>0.000122278</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>31.67681169509888</v>
+        <v>31.50080180168152</v>
       </c>
       <c r="B322" t="n">
-        <v>3.226954e-06</v>
+        <v>0.0001222963</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>31.78481817245483</v>
+        <v>31.6088080406189</v>
       </c>
       <c r="B323" t="n">
-        <v>3.226502e-06</v>
+        <v>0.0001222974</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>31.85482215881348</v>
+        <v>31.70981383323669</v>
       </c>
       <c r="B324" t="n">
-        <v>3.226124e-06</v>
+        <v>0.0001222897</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>31.96282815933228</v>
+        <v>31.80281925201416</v>
       </c>
       <c r="B325" t="n">
-        <v>3.226467e-06</v>
+        <v>0.0001222678</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>32.06083369255066</v>
+        <v>31.91082525253296</v>
       </c>
       <c r="B326" t="n">
-        <v>3.225149e-06</v>
+        <v>0.0001222944</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>32.13183784484863</v>
+        <v>32.00083065032959</v>
       </c>
       <c r="B327" t="n">
-        <v>3.226668e-06</v>
+        <v>0.0001223067</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>32.23484373092651</v>
+        <v>32.10083627700806</v>
       </c>
       <c r="B328" t="n">
-        <v>3.226535e-06</v>
+        <v>0.0001222979</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>32.32784914970398</v>
+        <v>32.20884227752686</v>
       </c>
       <c r="B329" t="n">
-        <v>3.225215e-06</v>
+        <v>0.0001222935</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>32.39785313606262</v>
+        <v>32.32784938812256</v>
       </c>
       <c r="B330" t="n">
-        <v>3.225388e-06</v>
+        <v>0.0001223081</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>32.505859375</v>
+        <v>32.44785594940186</v>
       </c>
       <c r="B331" t="n">
-        <v>3.224978e-06</v>
+        <v>0.0001222693</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>32.59386444091797</v>
+        <v>32.56686305999756</v>
       </c>
       <c r="B332" t="n">
-        <v>3.225116e-06</v>
+        <v>0.0001222163</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>32.68886971473694</v>
+        <v>32.68686985969543</v>
       </c>
       <c r="B333" t="n">
-        <v>3.225853e-06</v>
+        <v>0.0001222073</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>32.75887393951416</v>
+        <v>32.80787682533264</v>
       </c>
       <c r="B334" t="n">
-        <v>3.224856e-06</v>
+        <v>0.0001221834</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>32.86587977409363</v>
+        <v>32.92788362503052</v>
       </c>
       <c r="B335" t="n">
-        <v>3.223419e-06</v>
+        <v>0.0001221701</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>32.9368839263916</v>
+        <v>33.04689025878906</v>
       </c>
       <c r="B336" t="n">
-        <v>3.22498e-06</v>
+        <v>0.0001221498</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>33.04589009284973</v>
+        <v>33.16689729690552</v>
       </c>
       <c r="B337" t="n">
-        <v>3.224854e-06</v>
+        <v>0.0001221201</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>33.11489415168762</v>
+        <v>33.23590111732483</v>
       </c>
       <c r="B338" t="n">
-        <v>3.224544e-06</v>
+        <v>0.000122124</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>33.22390031814575</v>
+        <v>33.30490517616272</v>
       </c>
       <c r="B339" t="n">
-        <v>3.225093e-06</v>
+        <v>0.0001221088</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>33.32690644264221</v>
+        <v>33.40991115570068</v>
       </c>
       <c r="B340" t="n">
-        <v>3.224418e-06</v>
+        <v>0.0001220944</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>33.43491244316101</v>
+        <v>33.50691676139832</v>
       </c>
       <c r="B341" t="n">
-        <v>3.224249e-06</v>
+        <v>0.0001221115</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>33.52491736412048</v>
+        <v>33.57592082023621</v>
       </c>
       <c r="B342" t="n">
-        <v>3.223438e-06</v>
+        <v>0.000122092</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>33.60492205619812</v>
+        <v>33.68092656135559</v>
       </c>
       <c r="B343" t="n">
-        <v>3.221914e-06</v>
+        <v>0.0001220662</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>33.71092820167542</v>
+        <v>33.76593136787415</v>
       </c>
       <c r="B344" t="n">
-        <v>3.223035e-06</v>
+        <v>0.0001220751</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>33.80093336105347</v>
+        <v>33.88693857192993</v>
       </c>
       <c r="B345" t="n">
-        <v>3.22435e-06</v>
+        <v>0.0001220691</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>33.90593934059143</v>
+        <v>34.00794529914856</v>
       </c>
       <c r="B346" t="n">
-        <v>3.222505e-06</v>
+        <v>0.0001220754</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>34.00894522666931</v>
+        <v>34.12795233726501</v>
       </c>
       <c r="B347" t="n">
-        <v>3.223543e-06</v>
+        <v>0.0001220826</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>34.10895109176636</v>
+        <v>34.23395824432373</v>
       </c>
       <c r="B348" t="n">
-        <v>3.223644e-06</v>
+        <v>0.000122067</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>34.21595692634583</v>
+        <v>34.32896375656128</v>
       </c>
       <c r="B349" t="n">
-        <v>3.223173e-06</v>
+        <v>0.000122028</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>34.30696249008179</v>
+        <v>34.43396949768066</v>
       </c>
       <c r="B350" t="n">
-        <v>3.224727e-06</v>
+        <v>0.0001220583</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>34.40296769142151</v>
+        <v>34.50297355651855</v>
       </c>
       <c r="B351" t="n">
-        <v>3.223063e-06</v>
+        <v>0.0001219778</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>34.50097346305847</v>
+        <v>34.60997986793518</v>
       </c>
       <c r="B352" t="n">
-        <v>3.225384e-06</v>
+        <v>0.000121982</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>34.60697937011719</v>
+        <v>34.70098495483398</v>
       </c>
       <c r="B353" t="n">
-        <v>3.225735e-06</v>
+        <v>0.0001219408</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>34.70698523521423</v>
+        <v>34.79099011421204</v>
       </c>
       <c r="B354" t="n">
-        <v>3.225339e-06</v>
+        <v>0.0001219122</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>34.81599164009094</v>
+        <v>34.88099527359009</v>
       </c>
       <c r="B355" t="n">
-        <v>3.224174e-06</v>
+        <v>0.0001219289</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>34.9079966545105</v>
+        <v>34.98900127410889</v>
       </c>
       <c r="B356" t="n">
-        <v>3.224943e-06</v>
+        <v>0.0001219016</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>35.00300216674805</v>
+        <v>35.09400749206543</v>
       </c>
       <c r="B357" t="n">
-        <v>3.223757e-06</v>
+        <v>0.0001218806</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>35.10400795936584</v>
+        <v>35.1650116443634</v>
       </c>
       <c r="B358" t="n">
-        <v>3.224519e-06</v>
+        <v>0.0001218963</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>35.20801377296448</v>
+        <v>35.2730176448822</v>
       </c>
       <c r="B359" t="n">
-        <v>3.224861e-06</v>
+        <v>0.0001218726</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>35.30901956558228</v>
+        <v>35.34402179718018</v>
       </c>
       <c r="B360" t="n">
-        <v>3.222228e-06</v>
+        <v>0.0001218781</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>35.41702580451965</v>
+        <v>35.45202803611755</v>
       </c>
       <c r="B361" t="n">
-        <v>3.222936e-06</v>
+        <v>0.0001218666</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>35.50703096389771</v>
+        <v>35.5220320224762</v>
       </c>
       <c r="B362" t="n">
-        <v>3.224354e-06</v>
+        <v>0.000121876</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>35.60203647613525</v>
+        <v>35.63103795051575</v>
       </c>
       <c r="B363" t="n">
-        <v>3.224776e-06</v>
+        <v>0.0001218555</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>35.70304203033447</v>
+        <v>35.70104193687439</v>
       </c>
       <c r="B364" t="n">
-        <v>3.222324e-06</v>
+        <v>0.0001218222</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>35.80904841423035</v>
+        <v>35.8100483417511</v>
       </c>
       <c r="B365" t="n">
-        <v>3.222015e-06</v>
+        <v>0.0001218175</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>35.90005350112915</v>
+        <v>35.90905404090881</v>
       </c>
       <c r="B366" t="n">
-        <v>3.222763e-06</v>
+        <v>0.000121794</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>36.0020592212677</v>
+        <v>36.00105953216553</v>
       </c>
       <c r="B367" t="n">
-        <v>3.222041e-06</v>
+        <v>0.0001218027</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>36.10606503486633</v>
+        <v>36.11106562614441</v>
       </c>
       <c r="B368" t="n">
-        <v>3.221412e-06</v>
+        <v>0.0001217812</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>36.20607089996338</v>
+        <v>36.21007108688354</v>
       </c>
       <c r="B369" t="n">
-        <v>3.221525e-06</v>
+        <v>0.0001217609</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>36.31707715988159</v>
+        <v>36.30707693099976</v>
       </c>
       <c r="B370" t="n">
-        <v>3.219406e-06</v>
+        <v>0.000121737</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>36.40708255767822</v>
+        <v>36.4140830039978</v>
       </c>
       <c r="B371" t="n">
-        <v>3.219715e-06</v>
+        <v>0.0001217249</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>36.50608801841736</v>
+        <v>36.50508809089661</v>
       </c>
       <c r="B372" t="n">
-        <v>3.219204e-06</v>
+        <v>0.0001216934</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>36.61509418487549</v>
+        <v>36.6230947971344</v>
       </c>
       <c r="B373" t="n">
-        <v>3.218611e-06</v>
+        <v>0.0001216834</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>36.70409965515137</v>
+        <v>36.70409941673279</v>
       </c>
       <c r="B374" t="n">
-        <v>3.219188e-06</v>
+        <v>0.0001216715</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>36.80610537528992</v>
+        <v>36.81210589408875</v>
       </c>
       <c r="B375" t="n">
-        <v>3.218102e-06</v>
+        <v>0.0001216294</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>36.91611170768738</v>
+        <v>36.92211198806763</v>
       </c>
       <c r="B376" t="n">
-        <v>3.218091e-06</v>
+        <v>0.0001216017</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>37.00811672210693</v>
+        <v>37.00411677360535</v>
       </c>
       <c r="B377" t="n">
-        <v>3.216764e-06</v>
+        <v>0.0001215655</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>37.1061224937439</v>
+        <v>37.11312294006348</v>
       </c>
       <c r="B378" t="n">
-        <v>3.2175e-06</v>
+        <v>0.0001215783</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>37.21512866020203</v>
+        <v>37.22412919998169</v>
       </c>
       <c r="B379" t="n">
-        <v>3.217387e-06</v>
+        <v>0.0001215425</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>37.30513381958008</v>
+        <v>37.30913424491882</v>
       </c>
       <c r="B380" t="n">
-        <v>3.21799e-06</v>
+        <v>0.0001215375</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>37.40413951873779</v>
+        <v>37.43214106559753</v>
       </c>
       <c r="B381" t="n">
-        <v>3.21788e-06</v>
+        <v>0.0001215133</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>37.51514601707458</v>
+        <v>37.50414514541626</v>
       </c>
       <c r="B382" t="n">
-        <v>3.216478e-06</v>
+        <v>0.0001214924</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>37.60515093803406</v>
+        <v>37.61115145683289</v>
       </c>
       <c r="B383" t="n">
-        <v>3.217195e-06</v>
+        <v>0.0001214812</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>37.70315647125244</v>
+        <v>37.70115637779236</v>
       </c>
       <c r="B384" t="n">
-        <v>3.215554e-06</v>
+        <v>0.0001214449</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>37.80316233634949</v>
+        <v>37.81916332244873</v>
       </c>
       <c r="B385" t="n">
-        <v>3.215756e-06</v>
+        <v>0.000121444</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>37.90716814994812</v>
+        <v>37.92316913604736</v>
       </c>
       <c r="B386" t="n">
-        <v>3.214345e-06</v>
+        <v>0.000121401</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>38.00817394256592</v>
+        <v>38.03017544746399</v>
       </c>
       <c r="B387" t="n">
-        <v>3.213927e-06</v>
+        <v>0.0001213827</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>38.1161801815033</v>
+        <v>38.12418079376221</v>
       </c>
       <c r="B388" t="n">
-        <v>3.213081e-06</v>
+        <v>0.0001213664</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>38.2071852684021</v>
+        <v>38.20418548583984</v>
       </c>
       <c r="B389" t="n">
-        <v>3.213526e-06</v>
+        <v>0.0001213481</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>38.30419087409973</v>
+        <v>38.3011908531189</v>
       </c>
       <c r="B390" t="n">
-        <v>3.212858e-06</v>
+        <v>0.000121403</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>38.4041965007782</v>
+        <v>38.40219664573669</v>
       </c>
       <c r="B391" t="n">
-        <v>3.211646e-06</v>
+        <v>0.000121349</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>38.51020288467407</v>
+        <v>38.51220297813416</v>
       </c>
       <c r="B392" t="n">
-        <v>3.211363e-06</v>
+        <v>0.0001213433</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>38.60020780563354</v>
+        <v>38.60220813751221</v>
       </c>
       <c r="B393" t="n">
-        <v>3.210711e-06</v>
+        <v>0.0001214013</v>
       </c>
     </row>
     <row r="394">
@@ -3577,111 +3577,111 @@
         <v>38.70721411705017</v>
       </c>
       <c r="B394" t="n">
-        <v>3.209792e-06</v>
+        <v>0.000121244</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>38.8112199306488</v>
+        <v>38.81322026252747</v>
       </c>
       <c r="B395" t="n">
-        <v>3.20824e-06</v>
+        <v>0.0001212602</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>38.90222501754761</v>
+        <v>38.90322542190552</v>
       </c>
       <c r="B396" t="n">
-        <v>3.208819e-06</v>
+        <v>0.0001211851</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>39.00423097610474</v>
+        <v>39.0082311630249</v>
       </c>
       <c r="B397" t="n">
-        <v>3.207719e-06</v>
+        <v>0.000121201</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>39.10823702812195</v>
+        <v>39.1142373085022</v>
       </c>
       <c r="B398" t="n">
-        <v>3.206484e-06</v>
+        <v>0.0001211888</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>39.20824265480042</v>
+        <v>39.205242395401</v>
       </c>
       <c r="B399" t="n">
-        <v>3.204489e-06</v>
+        <v>0.0001211856</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>39.31224846839905</v>
+        <v>39.32224941253662</v>
       </c>
       <c r="B400" t="n">
-        <v>3.203779e-06</v>
+        <v>0.0001211481</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>39.42025470733643</v>
+        <v>39.40225386619568</v>
       </c>
       <c r="B401" t="n">
-        <v>3.203849e-06</v>
+        <v>0.0001211271</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>39.52726101875305</v>
+        <v>39.50826001167297</v>
       </c>
       <c r="B402" t="n">
-        <v>3.201643e-06</v>
+        <v>0.0001211073</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>39.60826539993286</v>
+        <v>39.60826563835144</v>
       </c>
       <c r="B403" t="n">
-        <v>3.200365e-06</v>
+        <v>0.0001211184</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>39.72027182579041</v>
+        <v>39.70327091217041</v>
       </c>
       <c r="B404" t="n">
-        <v>3.19861e-06</v>
+        <v>0.0001210868</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>39.82727813720703</v>
+        <v>39.81027722358704</v>
       </c>
       <c r="B405" t="n">
-        <v>3.198322e-06</v>
+        <v>0.0001210606</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>39.90728259086609</v>
+        <v>39.9202835559845</v>
       </c>
       <c r="B406" t="n">
-        <v>3.196636e-06</v>
+        <v>0.0001210378</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>40.01028871536255</v>
+        <v>40.01328873634338</v>
       </c>
       <c r="B407" t="n">
-        <v>3.195131e-06</v>
+        <v>0.0001210159</v>
       </c>
     </row>
   </sheetData>
